--- a/2_description/3_LIHK/model11_results.xlsx
+++ b/2_description/3_LIHK/model11_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,153 +360,4363 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std.error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>cyear</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>int_11</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>eduy_11</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>eduy_wy_11</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp_11</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exp2_11</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>9.60847428201992</v>
+      </c>
+      <c r="C2">
+        <v>0.1123048456402256</v>
+      </c>
+      <c r="D2">
+        <v>85.55707660915333</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>2010</v>
       </c>
-      <c r="B2">
-        <v>8.563473665702523</v>
-      </c>
-      <c r="C2">
-        <v>0.0473554843563351</v>
-      </c>
-      <c r="D2">
-        <v>0.01318499913602493</v>
-      </c>
-      <c r="E2">
-        <v>0.04843559754787346</v>
-      </c>
-      <c r="F2">
-        <v>-0.001455728076495884</v>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.02460587774666587</v>
+      </c>
+      <c r="C3">
+        <v>0.008890160650310515</v>
+      </c>
+      <c r="D3">
+        <v>2.767765253579129</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>2010</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.007535656842954731</v>
+      </c>
+      <c r="C4">
+        <v>0.001248292154934674</v>
+      </c>
+      <c r="D4">
+        <v>6.036773373256589</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.02724881428892516</v>
+      </c>
+      <c r="C5">
+        <v>0.005547550836322426</v>
+      </c>
+      <c r="D5">
+        <v>4.911863828360859</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>2010</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.0007874043427944372</v>
+      </c>
+      <c r="C6">
+        <v>0.0001596911055472558</v>
+      </c>
+      <c r="D6">
+        <v>-4.930796490487245</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>2010</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.005374456512502528</v>
+      </c>
+      <c r="C7">
+        <v>0.02363578979578462</v>
+      </c>
+      <c r="D7">
+        <v>0.2273863729089793</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.820</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>2010</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>8.72107978192316</v>
+      </c>
+      <c r="C8">
+        <v>0.1301366668310577</v>
+      </c>
+      <c r="D8">
+        <v>67.014777574139</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>2010</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.06162827160973865</v>
+      </c>
+      <c r="C9">
+        <v>0.00986740098524035</v>
+      </c>
+      <c r="D9">
+        <v>6.24564378217954</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>2010</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.004143062801703434</v>
+      </c>
+      <c r="C10">
+        <v>0.001433674497296852</v>
+      </c>
+      <c r="D10">
+        <v>2.889821092245867</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>2010</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.02629004773336951</v>
+      </c>
+      <c r="C11">
+        <v>0.007160688786549328</v>
+      </c>
+      <c r="D11">
+        <v>3.671441186321748</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>-0.0008837396474879986</v>
+      </c>
+      <c r="C12">
+        <v>0.0002362723397361491</v>
+      </c>
+      <c r="D12">
+        <v>-3.74034323473874</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>2010</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.09401900122719083</v>
+      </c>
+      <c r="C13">
+        <v>0.02799309598914224</v>
+      </c>
+      <c r="D13">
+        <v>3.358649620737136</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>2010</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>7.723903256587112</v>
+      </c>
+      <c r="C14">
+        <v>0.1036388708049522</v>
+      </c>
+      <c r="D14">
+        <v>74.52708811468486</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>2010</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.07051168478257595</v>
+      </c>
+      <c r="C15">
+        <v>0.01044889691378944</v>
+      </c>
+      <c r="D15">
+        <v>6.748241978492624</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>2010</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>-0.004404774883813756</v>
+      </c>
+      <c r="C16">
+        <v>0.002624008405912646</v>
+      </c>
+      <c r="D16">
+        <v>-1.678643587378962</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.093</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.04921973515713407</v>
+      </c>
+      <c r="C17">
+        <v>0.009410841791976477</v>
+      </c>
+      <c r="D17">
+        <v>5.230109722925953</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>2010</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>-0.001512164213658558</v>
+      </c>
+      <c r="C18">
+        <v>0.0002771744008611218</v>
+      </c>
+      <c r="D18">
+        <v>-5.455641678887321</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>2010</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>1.767908473278767</v>
+      </c>
+      <c r="C19">
+        <v>0.1787900677779002</v>
+      </c>
+      <c r="D19">
+        <v>9.888180564229835</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>2010</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>7.711443630324251</v>
+      </c>
+      <c r="C20">
+        <v>0.07527262198362043</v>
+      </c>
+      <c r="D20">
+        <v>102.4468581950325</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>2010</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.0404214156976869</v>
+      </c>
+      <c r="C21">
+        <v>0.008506028357910193</v>
+      </c>
+      <c r="D21">
+        <v>4.752090399521999</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>2010</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0.002403483881017867</v>
+      </c>
+      <c r="C22">
+        <v>0.002123216333298276</v>
+      </c>
+      <c r="D22">
+        <v>1.132001409052941</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.258</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>2010</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.08626945356849078</v>
+      </c>
+      <c r="C23">
+        <v>0.01263334526090207</v>
+      </c>
+      <c r="D23">
+        <v>6.828710194082895</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>2010</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>-0.002875720746853402</v>
+      </c>
+      <c r="C24">
+        <v>0.0004195327676498324</v>
+      </c>
+      <c r="D24">
+        <v>-6.854579590916848</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>2010</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>1.235348757024462</v>
+      </c>
+      <c r="C25">
+        <v>0.1348135509955706</v>
+      </c>
+      <c r="D25">
+        <v>9.163387121707448</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>2010</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>9.26699615090199</v>
+      </c>
+      <c r="C26">
+        <v>0.1126941353045313</v>
+      </c>
+      <c r="D26">
+        <v>82.23139674358347</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F26">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>9.114428058217294</v>
-      </c>
-      <c r="C3">
-        <v>0.02702929458847543</v>
-      </c>
-      <c r="D3">
-        <v>0.008514628461451568</v>
-      </c>
-      <c r="E3">
-        <v>0.02143024981036354</v>
-      </c>
-      <c r="F3">
-        <v>-0.0007067833392750317</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0.02235779636646917</v>
+      </c>
+      <c r="C27">
+        <v>0.00793281443857553</v>
+      </c>
+      <c r="D27">
+        <v>2.818393968444305</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>2012</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.00406985955684064</v>
+      </c>
+      <c r="C28">
+        <v>0.001266219055092496</v>
+      </c>
+      <c r="D28">
+        <v>3.214182838642673</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>2012</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.02139341630278881</v>
+      </c>
+      <c r="C29">
+        <v>0.00526341634877723</v>
+      </c>
+      <c r="D29">
+        <v>4.064549502674023</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>2012</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>-0.0006836441994837658</v>
+      </c>
+      <c r="C30">
+        <v>0.0001505360076603397</v>
+      </c>
+      <c r="D30">
+        <v>-4.54139982924417</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>2012</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>0.0710157540266966</v>
+      </c>
+      <c r="C31">
+        <v>0.02231374389531188</v>
+      </c>
+      <c r="D31">
+        <v>3.182601465709975</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>2012</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>8.269135985729802</v>
+      </c>
+      <c r="C32">
+        <v>0.1389027812955127</v>
+      </c>
+      <c r="D32">
+        <v>59.53182440701021</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>2012</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.05452381518088136</v>
+      </c>
+      <c r="C33">
+        <v>0.00906397360568674</v>
+      </c>
+      <c r="D33">
+        <v>6.015442845803644</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>2012</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.002606708734054837</v>
+      </c>
+      <c r="C34">
+        <v>0.001510605208668538</v>
+      </c>
+      <c r="D34">
+        <v>1.725605551401756</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>2012</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0.02324761030341215</v>
+      </c>
+      <c r="C35">
+        <v>0.007212516634677806</v>
+      </c>
+      <c r="D35">
+        <v>3.223231429600808</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>2012</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>-0.0006029715862600128</v>
+      </c>
+      <c r="C36">
+        <v>0.0002373984004472793</v>
+      </c>
+      <c r="D36">
+        <v>-2.539914275428822</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>2012</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0.1370194518678637</v>
+      </c>
+      <c r="C37">
+        <v>0.02797633612725143</v>
+      </c>
+      <c r="D37">
+        <v>4.897691078796936</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>2012</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>8.860432418753456</v>
+      </c>
+      <c r="C38">
+        <v>0.08657275553721465</v>
+      </c>
+      <c r="D38">
+        <v>102.3466604911826</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>2012</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>0.05361133363723764</v>
+      </c>
+      <c r="C39">
+        <v>0.008746235739312344</v>
+      </c>
+      <c r="D39">
+        <v>6.129646539969975</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>2012</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>-0.0005844555688366942</v>
+      </c>
+      <c r="C40">
+        <v>0.002099439023230067</v>
+      </c>
+      <c r="D40">
+        <v>-0.2783865415331221</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.781</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>2012</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.03351426754687107</v>
+      </c>
+      <c r="C41">
+        <v>0.007819650192805597</v>
+      </c>
+      <c r="D41">
+        <v>4.285903681178167</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>2012</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>-0.001240463691659216</v>
+      </c>
+      <c r="C42">
+        <v>0.0002261268448656828</v>
+      </c>
+      <c r="D42">
+        <v>-5.485698491021887</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>2012</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.5359791910030774</v>
+      </c>
+      <c r="C43">
+        <v>0.1084798964996997</v>
+      </c>
+      <c r="D43">
+        <v>4.940815840514385</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>2012</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>8.278051736373248</v>
+      </c>
+      <c r="C44">
+        <v>0.1149868463926138</v>
+      </c>
+      <c r="D44">
+        <v>71.99129288326138</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>2012</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.05980076434998094</v>
+      </c>
+      <c r="C45">
+        <v>0.01200925257519514</v>
+      </c>
+      <c r="D45">
+        <v>4.979557551608014</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>2012</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>0.002090086136920018</v>
+      </c>
+      <c r="C46">
+        <v>0.002647838914124497</v>
+      </c>
+      <c r="D46">
+        <v>0.7893554724083739</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.430</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>2012</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>0.05691761229786045</v>
+      </c>
+      <c r="C47">
+        <v>0.01512579794428453</v>
+      </c>
+      <c r="D47">
+        <v>3.762949399926863</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>2012</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>-0.002276135259291523</v>
+      </c>
+      <c r="C48">
+        <v>0.0005054347528960477</v>
+      </c>
+      <c r="D48">
+        <v>-4.50332163795562</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2012</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.4641105666935368</v>
+      </c>
+      <c r="C49">
+        <v>0.1367906259675278</v>
+      </c>
+      <c r="D49">
+        <v>3.392853592202364</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>2012</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>9.727179292476226</v>
+      </c>
+      <c r="C50">
+        <v>0.1077774073661623</v>
+      </c>
+      <c r="D50">
+        <v>90.25248918290612</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F50">
         <v>2014</v>
       </c>
-      <c r="B4">
-        <v>9.66027055503913</v>
-      </c>
-      <c r="C4">
-        <v>-0.006585878236764523</v>
-      </c>
-      <c r="D4">
-        <v>0.007395439074361218</v>
-      </c>
-      <c r="E4">
-        <v>0.02662219430172011</v>
-      </c>
-      <c r="F4">
-        <v>-0.0007143704540889441</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>-0.0009089121056743418</v>
+      </c>
+      <c r="C51">
+        <v>0.007856394515770469</v>
+      </c>
+      <c r="D51">
+        <v>-0.1156907413254063</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.908</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>2014</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.005626443873227716</v>
+      </c>
+      <c r="C52">
+        <v>0.001160118046208637</v>
+      </c>
+      <c r="D52">
+        <v>4.849889105350447</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>2014</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.02645527988432531</v>
+      </c>
+      <c r="C53">
+        <v>0.005024582356643234</v>
+      </c>
+      <c r="D53">
+        <v>5.265169919913355</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>2014</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>-0.0007323390790889923</v>
+      </c>
+      <c r="C54">
+        <v>0.000141524108563157</v>
+      </c>
+      <c r="D54">
+        <v>-5.17465954404635</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>2014</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.02487440185093244</v>
+      </c>
+      <c r="C55">
+        <v>0.01710574949616896</v>
+      </c>
+      <c r="D55">
+        <v>1.454154455874814</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.146</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>2014</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>9.054398565562744</v>
+      </c>
+      <c r="C56">
+        <v>0.1331329117945173</v>
+      </c>
+      <c r="D56">
+        <v>68.0102195882087</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>2014</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0.01012625436996147</v>
+      </c>
+      <c r="C57">
+        <v>0.00921398888975742</v>
+      </c>
+      <c r="D57">
+        <v>1.099008745410812</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.272</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>2014</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.004745227170194326</v>
+      </c>
+      <c r="C58">
+        <v>0.001387218539474296</v>
+      </c>
+      <c r="D58">
+        <v>3.420677445669513</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>2014</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0.04693845993813383</v>
+      </c>
+      <c r="C59">
+        <v>0.007071133274482972</v>
+      </c>
+      <c r="D59">
+        <v>6.638039210421455</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>2014</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>-0.001337460119501624</v>
+      </c>
+      <c r="C60">
+        <v>0.0002293760441709916</v>
+      </c>
+      <c r="D60">
+        <v>-5.8308622608584</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>2014</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.05123228677609813</v>
+      </c>
+      <c r="C61">
+        <v>0.02110016100089031</v>
+      </c>
+      <c r="D61">
+        <v>2.428051936377946</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>2014</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>9.64075031812053</v>
+      </c>
+      <c r="C62">
+        <v>0.1125854623595094</v>
+      </c>
+      <c r="D62">
+        <v>85.63050784776779</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>2014</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0.00604346052957526</v>
+      </c>
+      <c r="C63">
+        <v>0.009986089301395986</v>
+      </c>
+      <c r="D63">
+        <v>0.6051879116212616</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.545</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>2014</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.002414702178005993</v>
+      </c>
+      <c r="C64">
+        <v>0.002087010233476781</v>
+      </c>
+      <c r="D64">
+        <v>1.157015015677861</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.247</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>2014</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0.02082538873502945</v>
+      </c>
+      <c r="C65">
+        <v>0.007963843400799692</v>
+      </c>
+      <c r="D65">
+        <v>2.614992245193855</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>2014</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>-0.00070429701216643</v>
+      </c>
+      <c r="C66">
+        <v>0.0002245589326476055</v>
+      </c>
+      <c r="D66">
+        <v>-3.136357141809473</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>2014</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0.2206817441851947</v>
+      </c>
+      <c r="C67">
+        <v>0.1029673029414706</v>
+      </c>
+      <c r="D67">
+        <v>2.143221565302493</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>2014</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>8.806881305698177</v>
+      </c>
+      <c r="C68">
+        <v>0.1429021943100224</v>
+      </c>
+      <c r="D68">
+        <v>61.62873389188056</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>2014</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0.01338281652778034</v>
+      </c>
+      <c r="C69">
+        <v>0.01240930031509385</v>
+      </c>
+      <c r="D69">
+        <v>1.078450532098282</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.281</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>2014</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0.0009378215000213763</v>
+      </c>
+      <c r="C70">
+        <v>0.002384811045128838</v>
+      </c>
+      <c r="D70">
+        <v>0.3932477174394801</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.694</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>2014</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.04032050367588438</v>
+      </c>
+      <c r="C71">
+        <v>0.01288042990995224</v>
+      </c>
+      <c r="D71">
+        <v>3.13036940209039</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>2014</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>-0.001441878222622423</v>
+      </c>
+      <c r="C72">
+        <v>0.0004402460140062912</v>
+      </c>
+      <c r="D72">
+        <v>-3.27516474141619</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>2014</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.554442963173046</v>
+      </c>
+      <c r="C73">
+        <v>0.1230011585197971</v>
+      </c>
+      <c r="D73">
+        <v>4.507623910581364</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>2014</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>10.07983914920803</v>
+      </c>
+      <c r="C74">
+        <v>0.1032244145096872</v>
+      </c>
+      <c r="D74">
+        <v>97.64975851000911</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F74">
         <v>2016</v>
       </c>
-      <c r="B5">
-        <v>9.771239217633264</v>
-      </c>
-      <c r="C5">
-        <v>0.006206440861421773</v>
-      </c>
-      <c r="D5">
-        <v>0.006621375995714224</v>
-      </c>
-      <c r="E5">
-        <v>0.02709432615518965</v>
-      </c>
-      <c r="F5">
-        <v>-0.0007345678917549938</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.003433253638957827</v>
+      </c>
+      <c r="C75">
+        <v>0.006943487710658724</v>
+      </c>
+      <c r="D75">
+        <v>0.4944566451363556</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.621</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>2016</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0.007227557574616321</v>
+      </c>
+      <c r="C76">
+        <v>0.0009257378463999661</v>
+      </c>
+      <c r="D76">
+        <v>7.807348055092528</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>2016</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0.02441597250786544</v>
+      </c>
+      <c r="C77">
+        <v>0.004876685034998709</v>
+      </c>
+      <c r="D77">
+        <v>5.00667406909372</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>2016</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>-0.0007425199674591305</v>
+      </c>
+      <c r="C78">
+        <v>0.0001347991347325729</v>
+      </c>
+      <c r="D78">
+        <v>-5.508343721435683</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>2016</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>-0.01634843466741409</v>
+      </c>
+      <c r="C79">
+        <v>0.01331765272678408</v>
+      </c>
+      <c r="D79">
+        <v>-1.227576285611847</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.220</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>2016</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>9.206090302455298</v>
+      </c>
+      <c r="C80">
+        <v>0.1184215862127922</v>
+      </c>
+      <c r="D80">
+        <v>77.73996782911554</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>2016</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0.02470782129361138</v>
+      </c>
+      <c r="C81">
+        <v>0.007585496588577599</v>
+      </c>
+      <c r="D81">
+        <v>3.257245060371782</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>2016</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0.003315126732220518</v>
+      </c>
+      <c r="C82">
+        <v>0.001030869245104039</v>
+      </c>
+      <c r="D82">
+        <v>3.215855694565747</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>2016</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.03020773195098645</v>
+      </c>
+      <c r="C83">
+        <v>0.006336286791441669</v>
+      </c>
+      <c r="D83">
+        <v>4.767418670472365</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>2016</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>-0.0008281849757675867</v>
+      </c>
+      <c r="C84">
+        <v>0.0002036216412138331</v>
+      </c>
+      <c r="D84">
+        <v>-4.067273845896709</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>2016</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>0.05396917430985925</v>
+      </c>
+      <c r="C85">
+        <v>0.01519016255569055</v>
+      </c>
+      <c r="D85">
+        <v>3.552903012854282</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>2016</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>9.768572936829571</v>
+      </c>
+      <c r="C86">
+        <v>0.1293933175224877</v>
+      </c>
+      <c r="D86">
+        <v>75.49518880781349</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>2016</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0.008402087619756591</v>
+      </c>
+      <c r="C87">
+        <v>0.01021698319543787</v>
+      </c>
+      <c r="D87">
+        <v>0.8223648271740652</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.411</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>2016</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.00397810788478977</v>
+      </c>
+      <c r="C88">
+        <v>0.002081008802914609</v>
+      </c>
+      <c r="D88">
+        <v>1.911624727016115</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>2016</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>0.03304586199555741</v>
+      </c>
+      <c r="C89">
+        <v>0.007653192861229313</v>
+      </c>
+      <c r="D89">
+        <v>4.317918363584703</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>2016</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>-0.0009633559051871269</v>
+      </c>
+      <c r="C90">
+        <v>0.0002086486352905941</v>
+      </c>
+      <c r="D90">
+        <v>-4.617120566570776</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>2016</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>0.1245933068444216</v>
+      </c>
+      <c r="C91">
+        <v>0.1016371223958014</v>
+      </c>
+      <c r="D91">
+        <v>1.225864171549671</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.220</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>2016</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>8.99247398770188</v>
+      </c>
+      <c r="C92">
+        <v>0.1484865976524808</v>
+      </c>
+      <c r="D92">
+        <v>60.56084609567213</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>2016</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0.02598381887376091</v>
+      </c>
+      <c r="C93">
+        <v>0.01129139871209474</v>
+      </c>
+      <c r="D93">
+        <v>2.301204619222988</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>2016</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>0.0007158725905836136</v>
+      </c>
+      <c r="C94">
+        <v>0.002051509815717659</v>
+      </c>
+      <c r="D94">
+        <v>0.3489491422848431</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.727</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>2016</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>0.04934310455599291</v>
+      </c>
+      <c r="C95">
+        <v>0.01273289410515453</v>
+      </c>
+      <c r="D95">
+        <v>3.875246597395156</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>2016</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>-0.001846545099257972</v>
+      </c>
+      <c r="C96">
+        <v>0.0004769585582762918</v>
+      </c>
+      <c r="D96">
+        <v>-3.871500085733462</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>2016</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>0.3944561448924275</v>
+      </c>
+      <c r="C97">
+        <v>0.1052618633219369</v>
+      </c>
+      <c r="D97">
+        <v>3.747379463405542</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>2016</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>9.833667860326161</v>
+      </c>
+      <c r="C98">
+        <v>0.1007010114783143</v>
+      </c>
+      <c r="D98">
+        <v>97.652125991245</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F98">
         <v>2018</v>
       </c>
-      <c r="B6">
-        <v>9.736972664283332</v>
-      </c>
-      <c r="C6">
-        <v>0.01844415372310896</v>
-      </c>
-      <c r="D6">
-        <v>0.0063682441906795</v>
-      </c>
-      <c r="E6">
-        <v>0.02833685782759596</v>
-      </c>
-      <c r="F6">
-        <v>-0.0007444642312482163</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>0.02331553337081258</v>
+      </c>
+      <c r="C99">
+        <v>0.006243491649237283</v>
+      </c>
+      <c r="D99">
+        <v>3.734374077950573</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>2018</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>0.004380940129185796</v>
+      </c>
+      <c r="C100">
+        <v>0.0008029699969698551</v>
+      </c>
+      <c r="D100">
+        <v>5.455920078854782</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>2018</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>0.02905812727852896</v>
+      </c>
+      <c r="C101">
+        <v>0.004436194682338412</v>
+      </c>
+      <c r="D101">
+        <v>6.550237164797242</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>2018</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>-0.0008010052021571959</v>
+      </c>
+      <c r="C102">
+        <v>0.0001228912441634736</v>
+      </c>
+      <c r="D102">
+        <v>-6.518000591577339</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>2018</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0.01842958987165494</v>
+      </c>
+      <c r="C103">
+        <v>0.01110010106526201</v>
+      </c>
+      <c r="D103">
+        <v>1.66030829478938</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.097</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>2018</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>8.954938588395859</v>
+      </c>
+      <c r="C104">
+        <v>0.1197425445199352</v>
+      </c>
+      <c r="D104">
+        <v>74.78493650103624</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>2018</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>0.04515521902364172</v>
+      </c>
+      <c r="C105">
+        <v>0.007032642106878717</v>
+      </c>
+      <c r="D105">
+        <v>6.420804348834249</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>2018</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>0.002834924019538712</v>
+      </c>
+      <c r="C106">
+        <v>0.0009283926037918298</v>
+      </c>
+      <c r="D106">
+        <v>3.053583158633582</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>2018</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>0.03390435658628561</v>
+      </c>
+      <c r="C107">
+        <v>0.006196213114403853</v>
+      </c>
+      <c r="D107">
+        <v>5.471786712350291</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>2018</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>-0.000995371427849958</v>
+      </c>
+      <c r="C108">
+        <v>0.0002074738658110574</v>
+      </c>
+      <c r="D108">
+        <v>-4.79757498111316</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>2018</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>0.06080590288782833</v>
+      </c>
+      <c r="C109">
+        <v>0.01311932150281494</v>
+      </c>
+      <c r="D109">
+        <v>4.634835945958147</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>2018</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>9.605169481229275</v>
+      </c>
+      <c r="C110">
+        <v>0.1199582598289177</v>
+      </c>
+      <c r="D110">
+        <v>80.07093046304604</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>2018</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>0.02743557943098332</v>
+      </c>
+      <c r="C111">
+        <v>0.009606491197739082</v>
+      </c>
+      <c r="D111">
+        <v>2.855941765442972</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>2018</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>0.0009379034786716913</v>
+      </c>
+      <c r="C112">
+        <v>0.002006023123999085</v>
+      </c>
+      <c r="D112">
+        <v>0.4675437024883065</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.640</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>2018</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>0.03211401291888454</v>
+      </c>
+      <c r="C113">
+        <v>0.006692611639687924</v>
+      </c>
+      <c r="D113">
+        <v>4.798427676341611</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>2018</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>-0.0009854292829532439</v>
+      </c>
+      <c r="C114">
+        <v>0.000185854330038072</v>
+      </c>
+      <c r="D114">
+        <v>-5.30215939952209</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>2018</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>0.2558262382696637</v>
+      </c>
+      <c r="C115">
+        <v>0.08375769481799962</v>
+      </c>
+      <c r="D115">
+        <v>3.054361021104492</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>2018</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>8.960459719476804</v>
+      </c>
+      <c r="C116">
+        <v>0.1483415481106266</v>
+      </c>
+      <c r="D116">
+        <v>60.40424839569886</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>2018</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>0.02923530880876119</v>
+      </c>
+      <c r="C117">
+        <v>0.01094891494645708</v>
+      </c>
+      <c r="D117">
+        <v>2.670155805550517</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>2018</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>0.001669761210286442</v>
+      </c>
+      <c r="C118">
+        <v>0.002122584583691205</v>
+      </c>
+      <c r="D118">
+        <v>0.7866641561028884</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.432</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>2018</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>0.05356456588749361</v>
+      </c>
+      <c r="C119">
+        <v>0.01175503861443044</v>
+      </c>
+      <c r="D119">
+        <v>4.556732448478556</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>2018</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>-0.001759273420452734</v>
+      </c>
+      <c r="C120">
+        <v>0.0004383052881833911</v>
+      </c>
+      <c r="D120">
+        <v>-4.013808338348491</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>2018</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>0.3513135874631852</v>
+      </c>
+      <c r="C121">
+        <v>0.09919326499475377</v>
+      </c>
+      <c r="D121">
+        <v>3.541708073443956</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>2018</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>10.09711571502316</v>
+      </c>
+      <c r="C122">
+        <v>0.1064049277635625</v>
+      </c>
+      <c r="D122">
+        <v>94.89330924089811</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F122">
         <v>2020</v>
       </c>
-      <c r="B7">
-        <v>9.785141328307843</v>
-      </c>
-      <c r="C7">
-        <v>0.01962406574474009</v>
-      </c>
-      <c r="D7">
-        <v>0.007100862042451713</v>
-      </c>
-      <c r="E7">
-        <v>0.02966141988883385</v>
-      </c>
-      <c r="F7">
-        <v>-0.000739587973018332</v>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>0.02130468058151204</v>
+      </c>
+      <c r="C123">
+        <v>0.006923916504555147</v>
+      </c>
+      <c r="D123">
+        <v>3.076969597697487</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>2020</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>0.00691641335512089</v>
+      </c>
+      <c r="C124">
+        <v>0.0009301719792374867</v>
+      </c>
+      <c r="D124">
+        <v>7.435628582136666</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>2020</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>0.02632287621893534</v>
+      </c>
+      <c r="C125">
+        <v>0.004770906427569732</v>
+      </c>
+      <c r="D125">
+        <v>5.517374238744824</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>2020</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>-0.0007529493931545231</v>
+      </c>
+      <c r="C126">
+        <v>0.0001323355810995926</v>
+      </c>
+      <c r="D126">
+        <v>-5.689697259785873</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>2020</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>-0.009982123064855861</v>
+      </c>
+      <c r="C127">
+        <v>0.01006303565774824</v>
+      </c>
+      <c r="D127">
+        <v>-0.9919594250041159</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.321</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>2020</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>8.784083133901364</v>
+      </c>
+      <c r="C128">
+        <v>0.1225472652185989</v>
+      </c>
+      <c r="D128">
+        <v>71.67914451809578</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>2020</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>0.06185701696338218</v>
+      </c>
+      <c r="C129">
+        <v>0.007519024162835813</v>
+      </c>
+      <c r="D129">
+        <v>8.226734696388142</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>2020</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>0.001849015411587395</v>
+      </c>
+      <c r="C130">
+        <v>0.001033451123920172</v>
+      </c>
+      <c r="D130">
+        <v>1.7891658045458</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>2020</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>0.03164925772403683</v>
+      </c>
+      <c r="C131">
+        <v>0.006335161175434737</v>
+      </c>
+      <c r="D131">
+        <v>4.995809395783047</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>2020</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>-0.0007677595620599739</v>
+      </c>
+      <c r="C132">
+        <v>0.0002096756717600988</v>
+      </c>
+      <c r="D132">
+        <v>-3.661653045463514</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>2020</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>0.06521940591501391</v>
+      </c>
+      <c r="C133">
+        <v>0.01145077936972369</v>
+      </c>
+      <c r="D133">
+        <v>5.695630298096267</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>2020</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>9.970325609085441</v>
+      </c>
+      <c r="C134">
+        <v>0.1158626444664045</v>
+      </c>
+      <c r="D134">
+        <v>86.05297811907302</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>2020</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>0.003069505403188297</v>
+      </c>
+      <c r="C135">
+        <v>0.009563595299629966</v>
+      </c>
+      <c r="D135">
+        <v>0.3209572662811299</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.748</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>2020</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>0.007584049549241609</v>
+      </c>
+      <c r="C136">
+        <v>0.001917019580692142</v>
+      </c>
+      <c r="D136">
+        <v>3.956166971702699</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>2020</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>0.03472622919766177</v>
+      </c>
+      <c r="C137">
+        <v>0.006720379035340667</v>
+      </c>
+      <c r="D137">
+        <v>5.167302173738396</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>2020</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>-0.0009857682599520696</v>
+      </c>
+      <c r="C138">
+        <v>0.0001964955101167486</v>
+      </c>
+      <c r="D138">
+        <v>-5.016746995218218</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>2020</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>0.04223309954062984</v>
+      </c>
+      <c r="C139">
+        <v>0.06912557224897362</v>
+      </c>
+      <c r="D139">
+        <v>0.6109620241336509</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>2020</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>9.121054446564543</v>
+      </c>
+      <c r="C140">
+        <v>0.1570950613192549</v>
+      </c>
+      <c r="D140">
+        <v>58.06073322717874</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>2020</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>0.02686320705550203</v>
+      </c>
+      <c r="C141">
+        <v>0.01193096292526827</v>
+      </c>
+      <c r="D141">
+        <v>2.251553979654832</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>2020</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>eduy_wy</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>0.002590167348537673</v>
+      </c>
+      <c r="C142">
+        <v>0.002349527793673699</v>
+      </c>
+      <c r="D142">
+        <v>1.102420390817217</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.271</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>2020</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>0.05219871185633637</v>
+      </c>
+      <c r="C143">
+        <v>0.01126384646899742</v>
+      </c>
+      <c r="D143">
+        <v>4.634181760201364</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>2020</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>-0.001591201295114695</v>
+      </c>
+      <c r="C144">
+        <v>0.0004303475660136412</v>
+      </c>
+      <c r="D144">
+        <v>-3.697479481188135</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>2020</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>pwage</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>0.2306362695351352</v>
+      </c>
+      <c r="C145">
+        <v>0.09137035900851119</v>
+      </c>
+      <c r="D145">
+        <v>2.524191346491824</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>2020</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
